--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-80_remove/rem3/123/word_level_predictions_123.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-80_remove/rem3/123/word_level_predictions_123.xlsx
@@ -710,104 +710,104 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n">
+      <c r="A6" t="n">
         <v>0</v>
       </c>
-      <c r="B6" s="2" t="inlineStr">
+      <c r="B6" t="inlineStr">
         <is>
           <t>Impact detected Aircraft stopped Restart aircraft .</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Restart</t>
         </is>
       </c>
-      <c r="D6" s="2" t="n">
+      <c r="D6" t="n">
         <v>4</v>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="b">
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K6" t="b">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
         <v>0</v>
       </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B7" s="2" t="inlineStr">
+      <c r="B7" t="inlineStr">
         <is>
           <t>Impact detected Aircraft stopped Restart aircraft .</t>
         </is>
       </c>
-      <c r="C7" s="2" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>aircraft</t>
         </is>
       </c>
-      <c r="D7" s="2" t="n">
+      <c r="D7" t="n">
         <v>5</v>
       </c>
-      <c r="E7" s="2" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F7" s="2" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G7" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
+      <c r="G7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I7" t="b">
+        <v>1</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K7" t="b">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-80_remove/rem3/123/word_level_predictions_123.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-80_remove/rem3/123/word_level_predictions_123.xlsx
@@ -710,104 +710,104 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
+      <c r="A6" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" s="2" t="inlineStr">
         <is>
           <t>Impact detected Aircraft stopped Restart aircraft .</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C6" s="2" t="inlineStr">
         <is>
           <t>Restart</t>
         </is>
       </c>
-      <c r="D6" t="n">
+      <c r="D6" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E6" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G6" t="b">
-        <v>1</v>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I6" t="b">
-        <v>1</v>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K6" t="b">
-        <v>1</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
+      <c r="A7" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" s="2" t="inlineStr">
         <is>
           <t>Impact detected Aircraft stopped Restart aircraft .</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C7" s="2" t="inlineStr">
         <is>
           <t>aircraft</t>
         </is>
       </c>
-      <c r="D7" t="n">
+      <c r="D7" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E7" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I7" t="b">
-        <v>1</v>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K7" t="b">
-        <v>1</v>
-      </c>
-      <c r="L7" t="inlineStr">
+      <c r="G7" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
